--- a/González Altamirano Victorino Juventino 20212.xlsx
+++ b/González Altamirano Victorino Juventino 20212.xlsx
@@ -12459,6 +12459,9 @@
       <c r="J11" t="s">
         <v>1366</v>
       </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">

--- a/González Altamirano Victorino Juventino 20212.xlsx
+++ b/González Altamirano Victorino Juventino 20212.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="1738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="1746">
   <si>
     <t>NC</t>
   </si>
@@ -2191,6 +2191,9 @@
     <t>ROJAS</t>
   </si>
   <si>
+    <t>RUBALCAVA</t>
+  </si>
+  <si>
     <t>TERCERO</t>
   </si>
   <si>
@@ -2353,6 +2356,9 @@
     <t>ARANTXA</t>
   </si>
   <si>
+    <t>BRIANDA RENEE</t>
+  </si>
+  <si>
     <t>ISAI</t>
   </si>
   <si>
@@ -4636,6 +4642,9 @@
     <t>DIANA IVONNE</t>
   </si>
   <si>
+    <t>JOSE ISAAC</t>
+  </si>
+  <si>
     <t>FATIMA MARILYN</t>
   </si>
   <si>
@@ -4735,6 +4744,9 @@
     <t>fm516197@gmail.com</t>
   </si>
   <si>
+    <t>josemart041020@gmail.com</t>
+  </si>
+  <si>
     <t>fatrodri2@gmail.com</t>
   </si>
   <si>
@@ -4846,6 +4858,9 @@
     <t>2721951437</t>
   </si>
   <si>
+    <t>2721342134</t>
+  </si>
+  <si>
     <t>2721875803</t>
   </si>
   <si>
@@ -5020,6 +5035,9 @@
     <t>SARA RIVERA MARTINEZ</t>
   </si>
   <si>
+    <t>DANIEL MARTÍNEZ SÁNCHEZ</t>
+  </si>
+  <si>
     <t>LAURA ALONDRA RODRIGUEZ IGNACIO</t>
   </si>
   <si>
@@ -5122,6 +5140,9 @@
     <t>reginadejesussanchez@gmail.com</t>
   </si>
   <si>
+    <t>martisandaniel@gmail.com</t>
+  </si>
+  <si>
     <t>rodriguezlauraalondra390@gmail.com</t>
   </si>
   <si>
@@ -5189,6 +5210,9 @@
   </si>
   <si>
     <t>2722641275</t>
+  </si>
+  <si>
+    <t>9921059452</t>
   </si>
   <si>
     <t>2722260619</t>
@@ -9096,7 +9120,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9154,28 +9178,28 @@
         <v>704</v>
       </c>
       <c r="C2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="I2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="J2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9192,22 +9216,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E3" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F3" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H3" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="I3" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="J3" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -9221,28 +9245,28 @@
         <v>706</v>
       </c>
       <c r="C4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E4" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F4" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G4" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="H4" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="I4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="J4" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9256,28 +9280,28 @@
         <v>707</v>
       </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E5" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F5" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G5" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="H5" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="I5" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="J5" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -9294,22 +9318,22 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E6" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G6" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="H6" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="J6" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -9326,25 +9350,25 @@
         <v>514</v>
       </c>
       <c r="D7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="F7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="G7" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H7" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="I7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="J7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -9358,28 +9382,28 @@
         <v>710</v>
       </c>
       <c r="C8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F8" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G8" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="H8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="I8" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="J8" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -9393,25 +9417,25 @@
         <v>515</v>
       </c>
       <c r="C9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F9" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H9" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="I9" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="J9" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -9428,19 +9452,19 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G10" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H10" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="J10" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -9454,28 +9478,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D11" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E11" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F11" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G11" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H11" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="I11" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="J11" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9492,25 +9516,25 @@
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E12" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F12" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G12" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H12" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="I12" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="J12" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -9524,28 +9548,28 @@
         <v>712</v>
       </c>
       <c r="C13" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D13" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E13" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F13" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G13" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="H13" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="I13" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J13" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -9559,25 +9583,25 @@
         <v>499</v>
       </c>
       <c r="C14" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D14" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E14" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F14" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H14" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I14" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="J14" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -9591,22 +9615,22 @@
         <v>713</v>
       </c>
       <c r="C15" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D15" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E15" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G15" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H15" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="J15" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -9623,22 +9647,22 @@
         <v>515</v>
       </c>
       <c r="D16" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E16" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F16" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G16" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H16" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="J16" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -9655,22 +9679,22 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E17" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F17" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="H17" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="I17" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J17" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -9684,28 +9708,28 @@
         <v>714</v>
       </c>
       <c r="C18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D18" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E18" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H18" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="I18" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="J18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -9719,28 +9743,28 @@
         <v>715</v>
       </c>
       <c r="C19" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D19" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E19" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F19" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G19" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="H19" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="I19" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J19" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -9757,25 +9781,25 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E20" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F20" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G20" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="H20" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="I20" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J20" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9792,22 +9816,22 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E21" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F21" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G21" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="H21" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="J21" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -9821,28 +9845,28 @@
         <v>516</v>
       </c>
       <c r="C22" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D22" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E22" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G22" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="H22" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="I22" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="J22" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -9859,22 +9883,22 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E23" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F23" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="H23" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="I23" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="J23" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9891,22 +9915,22 @@
         <v>506</v>
       </c>
       <c r="D24" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E24" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F24" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="H24" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="I24" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="J24" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -9920,25 +9944,25 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D25" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E25" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F25" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="H25" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="I25" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J25" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -9955,22 +9979,22 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E26" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F26" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="H26" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="I26" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="J26" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9984,25 +10008,25 @@
         <v>719</v>
       </c>
       <c r="C27" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D27" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E27" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="F27" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="H27" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="I27" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="J27" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -10019,22 +10043,22 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E28" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F28" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G28" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="H28" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="J28" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -10051,22 +10075,22 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E29" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F29" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H29" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="I29" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="J29" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -10083,25 +10107,25 @@
         <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E30" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F30" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G30" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="H30" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="I30" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="J30" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -10118,22 +10142,22 @@
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E31" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="F31" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="H31" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="I31" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="J31" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -10147,28 +10171,28 @@
         <v>722</v>
       </c>
       <c r="C32" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D32" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E32" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F32" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G32" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="H32" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="I32" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J32" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -10185,25 +10209,25 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E33" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F33" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G33" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="H33" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="I33" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="J33" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -10220,25 +10244,25 @@
         <v>713</v>
       </c>
       <c r="D34" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E34" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F34" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G34" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="H34" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="I34" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="J34" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -10246,63 +10270,48 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>21330051920279</v>
+        <v>21330051420149</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>723</v>
       </c>
       <c r="C35" t="s">
-        <v>744</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>777</v>
-      </c>
-      <c r="E35" t="s">
-        <v>820</v>
-      </c>
-      <c r="F35" t="s">
-        <v>861</v>
-      </c>
-      <c r="G35" t="s">
-        <v>887</v>
-      </c>
-      <c r="H35" t="s">
-        <v>926</v>
-      </c>
-      <c r="I35" t="s">
-        <v>959</v>
-      </c>
-      <c r="J35" t="s">
-        <v>988</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
+        <v>778</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>21330051920280</v>
+        <v>21330051920279</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="C36" t="s">
-        <v>710</v>
+        <v>745</v>
       </c>
       <c r="D36" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E36" t="s">
-        <v>821</v>
+        <v>822</v>
+      </c>
+      <c r="F36" t="s">
+        <v>863</v>
       </c>
       <c r="G36" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H36" t="s">
-        <v>927</v>
+        <v>928</v>
+      </c>
+      <c r="I36" t="s">
+        <v>961</v>
       </c>
       <c r="J36" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -10310,203 +10319,197 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>21330051920282</v>
+        <v>21330051920280</v>
       </c>
       <c r="B37" t="s">
-        <v>723</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="D37" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E37" t="s">
-        <v>822</v>
-      </c>
-      <c r="F37" t="s">
-        <v>862</v>
+        <v>823</v>
+      </c>
+      <c r="G37" t="s">
+        <v>890</v>
       </c>
       <c r="H37" t="s">
-        <v>928</v>
-      </c>
-      <c r="I37" t="s">
-        <v>960</v>
+        <v>929</v>
       </c>
       <c r="J37" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>21330051920283</v>
+        <v>21330051920282</v>
       </c>
       <c r="B38" t="s">
         <v>724</v>
       </c>
       <c r="C38" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="D38" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E38" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F38" t="s">
-        <v>863</v>
-      </c>
-      <c r="G38" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
       <c r="H38" t="s">
-        <v>929</v>
+        <v>930</v>
+      </c>
+      <c r="I38" t="s">
+        <v>962</v>
       </c>
       <c r="J38" t="s">
-        <v>863</v>
+        <v>992</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>21330051920284</v>
+        <v>21330051920283</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>725</v>
       </c>
       <c r="C39" t="s">
-        <v>512</v>
+        <v>730</v>
       </c>
       <c r="D39" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E39" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F39" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G39" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H39" t="s">
-        <v>930</v>
-      </c>
-      <c r="I39" t="s">
-        <v>824</v>
+        <v>931</v>
       </c>
       <c r="J39" t="s">
-        <v>991</v>
+        <v>865</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>21330051920285</v>
+        <v>21330051920284</v>
       </c>
       <c r="B40" t="s">
-        <v>725</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>719</v>
+        <v>512</v>
       </c>
       <c r="D40" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E40" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F40" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G40" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H40" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="I40" t="s">
-        <v>961</v>
+        <v>826</v>
       </c>
       <c r="J40" t="s">
-        <v>865</v>
+        <v>993</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>21330051920286</v>
+        <v>21330051920285</v>
       </c>
       <c r="B41" t="s">
         <v>726</v>
       </c>
       <c r="C41" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D41" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E41" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F41" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G41" t="s">
-        <v>866</v>
+        <v>893</v>
       </c>
       <c r="H41" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="I41" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="J41" t="s">
-        <v>992</v>
+        <v>867</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>20330051920358</v>
+        <v>21330051920286</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>727</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>718</v>
       </c>
       <c r="D42" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E42" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F42" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G42" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H42" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I42" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="J42" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -10514,62 +10517,97 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>21330051920287</v>
+        <v>20330051920358</v>
       </c>
       <c r="B43" t="s">
-        <v>727</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D43" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E43" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F43" t="s">
-        <v>868</v>
+        <v>869</v>
+      </c>
+      <c r="G43" t="s">
+        <v>869</v>
       </c>
       <c r="H43" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="I43" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="J43" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>21330051920288</v>
+        <v>21330051920287</v>
       </c>
       <c r="B44" t="s">
         <v>728</v>
       </c>
       <c r="C44" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" t="s">
+        <v>787</v>
+      </c>
+      <c r="E44" t="s">
+        <v>830</v>
+      </c>
+      <c r="F44" t="s">
+        <v>870</v>
+      </c>
+      <c r="H44" t="s">
+        <v>936</v>
+      </c>
+      <c r="I44" t="s">
+        <v>966</v>
+      </c>
+      <c r="J44" t="s">
+        <v>996</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>21330051920288</v>
+      </c>
+      <c r="B45" t="s">
+        <v>729</v>
+      </c>
+      <c r="C45" t="s">
         <v>302</v>
       </c>
-      <c r="D44" t="s">
-        <v>786</v>
-      </c>
-      <c r="E44" t="s">
-        <v>829</v>
-      </c>
-      <c r="G44" t="s">
-        <v>892</v>
-      </c>
-      <c r="H44" t="s">
-        <v>935</v>
-      </c>
-      <c r="J44" t="s">
-        <v>995</v>
-      </c>
-      <c r="K44">
+      <c r="D45" t="s">
+        <v>788</v>
+      </c>
+      <c r="E45" t="s">
+        <v>831</v>
+      </c>
+      <c r="G45" t="s">
+        <v>894</v>
+      </c>
+      <c r="H45" t="s">
+        <v>937</v>
+      </c>
+      <c r="J45" t="s">
+        <v>997</v>
+      </c>
+      <c r="K45">
         <v>2</v>
       </c>
     </row>
@@ -10635,25 +10673,25 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C2" t="s">
         <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E2" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="H2" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="J2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10670,22 +10708,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="E3" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="F3" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="H3" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="I3" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="J3" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10696,25 +10734,25 @@
         <v>21330051920291</v>
       </c>
       <c r="B4" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C4" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D4" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E4" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="F4" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="H4" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="J4" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -10725,31 +10763,31 @@
         <v>21330051920292</v>
       </c>
       <c r="B5" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D5" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E5" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F5" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="G5" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="H5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="I5" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="J5" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -10763,25 +10801,25 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D6" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E6" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="F6" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H6" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="I6" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="J6" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -10792,31 +10830,31 @@
         <v>21330051920294</v>
       </c>
       <c r="B7" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E7" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F7" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="G7" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="H7" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="I7" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="J7" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -10833,19 +10871,19 @@
         <v>718</v>
       </c>
       <c r="D8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E8" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F8" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H8" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="J8" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -10856,28 +10894,28 @@
         <v>21330051920296</v>
       </c>
       <c r="B9" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C9" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D9" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E9" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F9" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="H9" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="I9" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="J9" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -10891,22 +10929,22 @@
         <v>708</v>
       </c>
       <c r="C10" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E10" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="G10" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="H10" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="J10" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -10923,25 +10961,25 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E11" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F11" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="G11" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H11" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I11" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="J11" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -10958,25 +10996,25 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E12" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F12" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="G12" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H12" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I12" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="J12" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -10987,28 +11025,28 @@
         <v>21330051920337</v>
       </c>
       <c r="B13" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E13" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="F13" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="H13" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="I13" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="J13" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -11022,22 +11060,22 @@
         <v>710</v>
       </c>
       <c r="C14" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D14" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E14" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="G14" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="H14" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="J14" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -11051,28 +11089,28 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D15" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E15" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="F15" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G15" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H15" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="I15" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="J15" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -11086,28 +11124,28 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D16" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E16" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F16" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="G16" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="H16" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="I16" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J16" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -11118,28 +11156,28 @@
         <v>21330051920303</v>
       </c>
       <c r="B17" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E17" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="F17" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="H17" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="I17" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="J17" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -11150,28 +11188,28 @@
         <v>21330051920304</v>
       </c>
       <c r="B18" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E18" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F18" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G18" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="H18" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="J18" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -11182,25 +11220,25 @@
         <v>21330051920305</v>
       </c>
       <c r="B19" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C19" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D19" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E19" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="G19" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="H19" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="J19" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -11217,22 +11255,22 @@
         <v>719</v>
       </c>
       <c r="D20" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E20" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F20" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="H20" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="I20" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="J20" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -11249,22 +11287,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E21" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="F21" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="H21" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="I21" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="J21" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -11278,25 +11316,25 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D22" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E22" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F22" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="G22" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H22" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="J22" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -11307,31 +11345,31 @@
         <v>21330051920308</v>
       </c>
       <c r="B23" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E23" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="F23" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G23" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="H23" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="I23" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="J23" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -11342,28 +11380,28 @@
         <v>21330051920309</v>
       </c>
       <c r="B24" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C24" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D24" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E24" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F24" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="H24" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="I24" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="J24" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -11377,28 +11415,28 @@
         <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D25" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E25" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F25" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G25" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="H25" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="I25" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="J25" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -11415,25 +11453,25 @@
         <v>294</v>
       </c>
       <c r="D26" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E26" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F26" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="G26" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="H26" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="I26" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="J26" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -11447,25 +11485,25 @@
         <v>502</v>
       </c>
       <c r="C27" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D27" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E27" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="F27" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G27" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="H27" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J27" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -11482,22 +11520,22 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E28" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F28" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G28" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H28" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="J28" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -11508,28 +11546,28 @@
         <v>21330051920313</v>
       </c>
       <c r="B29" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C29" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D29" t="s">
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F29" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H29" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="I29" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="J29" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -11540,28 +11578,28 @@
         <v>21330051920314</v>
       </c>
       <c r="B30" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C30" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D30" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E30" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F30" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="G30" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H30" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="J30" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -11572,31 +11610,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B31" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C31" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D31" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E31" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="F31" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="G31" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="H31" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="I31" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="J31" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -11610,25 +11648,25 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D32" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E32" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F32" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="H32" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="I32" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="J32" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -11648,19 +11686,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F33" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="H33" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="I33" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="J33" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -11671,28 +11709,28 @@
         <v>21330051920317</v>
       </c>
       <c r="B34" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C34" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D34" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E34" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F34" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="G34" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H34" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J34" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -11706,25 +11744,25 @@
         <v>719</v>
       </c>
       <c r="C35" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D35" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E35" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="F35" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="G35" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H35" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="J35" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -11741,22 +11779,22 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E36" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F36" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="G36" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="H36" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="J36" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -11770,25 +11808,25 @@
         <v>720</v>
       </c>
       <c r="C37" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D37" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E37" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F37" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="H37" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="I37" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="J37" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -11805,25 +11843,25 @@
         <v>296</v>
       </c>
       <c r="D38" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E38" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F38" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="G38" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="H38" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="I38" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="J38" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -11840,25 +11878,25 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E39" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F39" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="G39" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="H39" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="I39" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="J39" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -11872,28 +11910,28 @@
         <v>722</v>
       </c>
       <c r="C40" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D40" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E40" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F40" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="G40" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="H40" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="I40" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J40" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -11910,22 +11948,22 @@
         <v>719</v>
       </c>
       <c r="D41" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E41" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="F41" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="H41" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="I41" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="J41" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -11942,22 +11980,22 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E42" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F42" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="H42" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="I42" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="J42" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -11971,28 +12009,28 @@
         <v>506</v>
       </c>
       <c r="C43" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D43" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E43" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="F43" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="G43" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H43" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="I43" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="J43" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -12009,25 +12047,25 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E44" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F44" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="G44" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H44" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="I44" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="J44" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -12038,31 +12076,31 @@
         <v>21330051920330</v>
       </c>
       <c r="B45" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C45" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D45" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E45" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F45" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="G45" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H45" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="I45" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="J45" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -12136,25 +12174,25 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="E2" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="F2" t="s">
         <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="H2" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="I2" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="J2" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -12165,31 +12203,31 @@
         <v>21330051920002</v>
       </c>
       <c r="B3" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D3" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="E3" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="F3" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G3" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="H3" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="I3" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="J3" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -12200,28 +12238,28 @@
         <v>21330051920003</v>
       </c>
       <c r="B4" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C4" t="s">
         <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E4" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="F4" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="H4" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="I4" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="J4" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -12235,25 +12273,25 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="D5" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E5" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F5" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="H5" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="I5" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="J5" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -12270,22 +12308,22 @@
         <v>515</v>
       </c>
       <c r="D6" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E6" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="F6" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="G6" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="H6" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="J6" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -12302,25 +12340,25 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="E7" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="F7" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G7" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="H7" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="I7" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="J7" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -12331,28 +12369,28 @@
         <v>21330051920007</v>
       </c>
       <c r="B8" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C8" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D8" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E8" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="F8" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="H8" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="I8" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="J8" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -12363,31 +12401,31 @@
         <v>21330051920008</v>
       </c>
       <c r="B9" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C9" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D9" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="E9" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="F9" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="G9" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="H9" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="I9" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="J9" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -12398,7 +12436,7 @@
         <v>20330051920049</v>
       </c>
       <c r="B10" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -12407,22 +12445,22 @@
         <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="F10" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="G10" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="H10" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="I10" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="J10" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -12433,31 +12471,31 @@
         <v>21330051920380</v>
       </c>
       <c r="B11" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C11" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D11" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="E11" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F11" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="G11" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="H11" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="I11" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="J11" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -12471,25 +12509,25 @@
         <v>710</v>
       </c>
       <c r="C12" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D12" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="E12" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="F12" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="H12" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="I12" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="J12" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -12503,28 +12541,28 @@
         <v>515</v>
       </c>
       <c r="C13" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="D13" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="E13" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="F13" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G13" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="H13" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="I13" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="J13" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -12541,22 +12579,22 @@
         <v>710</v>
       </c>
       <c r="D14" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="E14" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="F14" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="H14" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="I14" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="J14" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -12570,28 +12608,28 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D15" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E15" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="F15" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G15" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="H15" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="I15" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="J15" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -12608,22 +12646,22 @@
         <v>710</v>
       </c>
       <c r="D16" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="E16" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="F16" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="H16" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="I16" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="J16" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -12634,31 +12672,31 @@
         <v>21330051920013</v>
       </c>
       <c r="B17" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="E17" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="F17" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G17" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="H17" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="I17" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="J17" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -12678,22 +12716,22 @@
         <v>520</v>
       </c>
       <c r="E18" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="F18" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="G18" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="H18" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="I18" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="J18" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -12707,25 +12745,25 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D19" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="E19" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="G19" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="H19" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="I19" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="J19" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -12736,31 +12774,31 @@
         <v>20330051920391</v>
       </c>
       <c r="B20" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C20" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D20" t="s">
         <v>529</v>
       </c>
       <c r="E20" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="F20" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G20" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="H20" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="I20" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="J20" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -12777,22 +12815,22 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="E21" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="F21" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="H21" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="I21" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="J21" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -12803,31 +12841,31 @@
         <v>21330051920016</v>
       </c>
       <c r="B22" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C22" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D22" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="E22" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="F22" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G22" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="H22" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="I22" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="J22" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -12844,22 +12882,22 @@
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="E23" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F23" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="H23" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="I23" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="J23" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -12876,25 +12914,25 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="E24" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="F24" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="G24" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="H24" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="I24" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="J24" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -12914,22 +12952,22 @@
         <v>327</v>
       </c>
       <c r="E25" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="F25" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="G25" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="H25" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="I25" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="J25" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -12940,28 +12978,28 @@
         <v>21330051920385</v>
       </c>
       <c r="B26" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C26" t="s">
         <v>307</v>
       </c>
       <c r="D26" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="E26" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="F26" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="G26" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="H26" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="J26" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -12975,28 +13013,28 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D27" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="E27" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F27" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G27" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="H27" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="I27" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="J27" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -13007,31 +13045,31 @@
         <v>21330051920356</v>
       </c>
       <c r="B28" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="E28" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="F28" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G28" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="H28" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="I28" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="J28" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -13048,25 +13086,25 @@
         <v>290</v>
       </c>
       <c r="D29" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="E29" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F29" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G29" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="H29" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="I29" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="J29" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -13077,31 +13115,31 @@
         <v>21330051920021</v>
       </c>
       <c r="B30" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C30" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D30" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E30" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="F30" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G30" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="H30" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="I30" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="J30" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -13112,31 +13150,31 @@
         <v>21330051920022</v>
       </c>
       <c r="B31" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C31" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="D31" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E31" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F31" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G31" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="H31" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="I31" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="J31" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -13147,31 +13185,31 @@
         <v>21330051920023</v>
       </c>
       <c r="B32" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="E32" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="F32" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="G32" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="H32" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="I32" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="J32" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -13182,28 +13220,28 @@
         <v>21330051920025</v>
       </c>
       <c r="B33" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C33" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D33" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="E33" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="F33" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="G33" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="H33" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="J33" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -13220,25 +13258,25 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="E34" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="F34" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="G34" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="H34" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="I34" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="J34" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -13255,25 +13293,25 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="E35" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="F35" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="G35" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="H35" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="I35" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="J35" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -13287,28 +13325,28 @@
         <v>506</v>
       </c>
       <c r="C36" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D36" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="E36" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="F36" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G36" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="H36" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="I36" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="J36" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -13319,31 +13357,31 @@
         <v>21330051920393</v>
       </c>
       <c r="B37" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="E37" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="F37" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="G37" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="H37" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="I37" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="J37" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -13356,7 +13394,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13411,31 +13449,31 @@
         <v>21330051920071</v>
       </c>
       <c r="B2" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E2" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="F2" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="G2" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="H2" t="s">
-        <v>1648</v>
+        <v>1653</v>
       </c>
       <c r="I2" t="s">
-        <v>1687</v>
+        <v>1693</v>
       </c>
       <c r="J2" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -13446,28 +13484,28 @@
         <v>21330051920072</v>
       </c>
       <c r="B3" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C3" t="s">
         <v>304</v>
       </c>
       <c r="D3" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="E3" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="F3" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="H3" t="s">
-        <v>1649</v>
+        <v>1654</v>
       </c>
       <c r="I3" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="J3" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -13478,28 +13516,28 @@
         <v>21330051920357</v>
       </c>
       <c r="B4" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="C4" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="D4" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="E4" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="F4" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="H4" t="s">
-        <v>1650</v>
+        <v>1655</v>
       </c>
       <c r="I4" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="J4" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -13510,25 +13548,25 @@
         <v>21330051920074</v>
       </c>
       <c r="B5" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="E5" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="G5" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="H5" t="s">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="J5" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -13542,25 +13580,25 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D6" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="E6" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="F6" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="H6" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="I6" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="J6" t="s">
-        <v>1714</v>
+        <v>1721</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -13571,28 +13609,28 @@
         <v>21330051920075</v>
       </c>
       <c r="B7" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C7" t="s">
         <v>280</v>
       </c>
       <c r="D7" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="E7" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="F7" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="H7" t="s">
-        <v>1653</v>
+        <v>1658</v>
       </c>
       <c r="I7" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="J7" t="s">
-        <v>1715</v>
+        <v>1722</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -13603,31 +13641,31 @@
         <v>21330051920108</v>
       </c>
       <c r="B8" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="E8" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="F8" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="G8" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="H8" t="s">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="I8" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="J8" t="s">
-        <v>1716</v>
+        <v>1723</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -13644,22 +13682,22 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="E9" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="F9" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="H9" t="s">
-        <v>1655</v>
+        <v>1660</v>
       </c>
       <c r="I9" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="J9" t="s">
-        <v>1717</v>
+        <v>1724</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -13673,28 +13711,28 @@
         <v>710</v>
       </c>
       <c r="C10" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="F10" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="G10" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
       <c r="H10" t="s">
-        <v>1656</v>
+        <v>1661</v>
       </c>
       <c r="I10" t="s">
-        <v>1693</v>
+        <v>1699</v>
       </c>
       <c r="J10" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -13711,22 +13749,22 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="E11" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="F11" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="H11" t="s">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="I11" t="s">
-        <v>1694</v>
+        <v>1700</v>
       </c>
       <c r="J11" t="s">
-        <v>1718</v>
+        <v>1725</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -13740,28 +13778,28 @@
         <v>515</v>
       </c>
       <c r="C12" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D12" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="E12" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="F12" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="G12" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="H12" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="I12" t="s">
-        <v>1695</v>
+        <v>1701</v>
       </c>
       <c r="J12" t="s">
-        <v>1719</v>
+        <v>1726</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -13781,22 +13819,22 @@
         <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="F13" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="G13" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H13" t="s">
-        <v>1659</v>
+        <v>1664</v>
       </c>
       <c r="I13" t="s">
-        <v>1696</v>
+        <v>1702</v>
       </c>
       <c r="J13" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -13810,28 +13848,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="D14" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="E14" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="F14" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="G14" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="H14" t="s">
-        <v>1660</v>
+        <v>1665</v>
       </c>
       <c r="I14" t="s">
-        <v>1697</v>
+        <v>1703</v>
       </c>
       <c r="J14" t="s">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -13845,28 +13883,28 @@
         <v>499</v>
       </c>
       <c r="C15" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="D15" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="E15" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="F15" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="G15" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
       <c r="H15" t="s">
-        <v>1661</v>
+        <v>1666</v>
       </c>
       <c r="I15" t="s">
-        <v>1698</v>
+        <v>1704</v>
       </c>
       <c r="J15" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -13883,25 +13921,25 @@
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="E16" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="F16" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="G16" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="H16" t="s">
-        <v>1662</v>
+        <v>1667</v>
       </c>
       <c r="I16" t="s">
-        <v>1699</v>
+        <v>1705</v>
       </c>
       <c r="J16" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -13918,19 +13956,19 @@
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E17" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="G17" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="H17" t="s">
-        <v>1663</v>
+        <v>1668</v>
       </c>
       <c r="J17" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -13947,22 +13985,22 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="E18" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="F18" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="G18" t="s">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="H18" t="s">
-        <v>1664</v>
+        <v>1669</v>
       </c>
       <c r="J18" t="s">
-        <v>1722</v>
+        <v>1729</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -13976,25 +14014,25 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="D19" t="s">
         <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="F19" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="G19" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="H19" t="s">
-        <v>1665</v>
+        <v>1670</v>
       </c>
       <c r="J19" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -14002,69 +14040,66 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920089</v>
+        <v>20330051920302</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>294</v>
       </c>
       <c r="D20" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="E20" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="F20" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="G20" t="s">
-        <v>1636</v>
+        <v>1612</v>
       </c>
       <c r="H20" t="s">
-        <v>1666</v>
+        <v>1671</v>
       </c>
       <c r="I20" t="s">
-        <v>1700</v>
+        <v>1706</v>
       </c>
       <c r="J20" t="s">
-        <v>1723</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920092</v>
+        <v>21330051920089</v>
       </c>
       <c r="B21" t="s">
-        <v>1506</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>1517</v>
+        <v>294</v>
       </c>
       <c r="D21" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="E21" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="F21" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="G21" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="H21" t="s">
-        <v>1667</v>
+        <v>1672</v>
       </c>
       <c r="I21" t="s">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="J21" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -14072,229 +14107,229 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920093</v>
+        <v>21330051920092</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>1508</v>
       </c>
       <c r="C22" t="s">
-        <v>722</v>
+        <v>1519</v>
       </c>
       <c r="D22" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="E22" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="F22" t="s">
-        <v>1610</v>
+        <v>1614</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1642</v>
       </c>
       <c r="H22" t="s">
-        <v>1668</v>
+        <v>1673</v>
       </c>
       <c r="I22" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="J22" t="s">
-        <v>1725</v>
+        <v>1732</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920094</v>
+        <v>21330051920093</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>1518</v>
+        <v>722</v>
       </c>
       <c r="D23" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="E23" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="F23" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1638</v>
+        <v>1615</v>
       </c>
       <c r="H23" t="s">
-        <v>1669</v>
+        <v>1674</v>
       </c>
       <c r="I23" t="s">
-        <v>1703</v>
+        <v>1709</v>
       </c>
       <c r="J23" t="s">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>21330051920096</v>
+        <v>21330051920094</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>1021</v>
+        <v>1520</v>
       </c>
       <c r="D24" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="E24" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="F24" t="s">
-        <v>1612</v>
+        <v>1616</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1643</v>
       </c>
       <c r="H24" t="s">
-        <v>1670</v>
+        <v>1675</v>
       </c>
       <c r="I24" t="s">
-        <v>1704</v>
+        <v>1710</v>
       </c>
       <c r="J24" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920097</v>
+        <v>21330051920096</v>
       </c>
       <c r="B25" t="s">
-        <v>1275</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>1519</v>
+        <v>1023</v>
       </c>
       <c r="D25" t="s">
-        <v>1029</v>
+        <v>1545</v>
       </c>
       <c r="E25" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="F25" t="s">
-        <v>1613</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1639</v>
+        <v>1617</v>
       </c>
       <c r="H25" t="s">
-        <v>1671</v>
+        <v>1676</v>
       </c>
       <c r="I25" t="s">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="J25" t="s">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>18330051920296</v>
+        <v>21330051920097</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>1277</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>1521</v>
       </c>
       <c r="D26" t="s">
-        <v>1543</v>
+        <v>1031</v>
       </c>
       <c r="E26" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="F26" t="s">
-        <v>1614</v>
+        <v>1618</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1644</v>
       </c>
       <c r="H26" t="s">
-        <v>1672</v>
+        <v>1677</v>
       </c>
       <c r="I26" t="s">
-        <v>1577</v>
+        <v>1712</v>
       </c>
       <c r="J26" t="s">
-        <v>1729</v>
+        <v>1736</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920098</v>
+        <v>18330051920296</v>
       </c>
       <c r="B27" t="s">
-        <v>718</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="E27" t="s">
-        <v>1578</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1640</v>
+        <v>1581</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1619</v>
       </c>
       <c r="H27" t="s">
-        <v>1673</v>
+        <v>1678</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1581</v>
       </c>
       <c r="J27" t="s">
-        <v>1640</v>
+        <v>1737</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>21330051920099</v>
+        <v>21330051920098</v>
       </c>
       <c r="B28" t="s">
         <v>718</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>549</v>
+        <v>1547</v>
       </c>
       <c r="E28" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1615</v>
+        <v>1582</v>
       </c>
       <c r="G28" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="H28" t="s">
-        <v>1674</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1706</v>
+        <v>1679</v>
       </c>
       <c r="J28" t="s">
-        <v>1730</v>
+        <v>1645</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -14302,127 +14337,130 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>21330051920100</v>
+        <v>21330051920099</v>
       </c>
       <c r="B29" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C29" t="s">
-        <v>1520</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>1545</v>
+        <v>549</v>
       </c>
       <c r="E29" t="s">
-        <v>1580</v>
+        <v>1583</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1620</v>
       </c>
       <c r="G29" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="H29" t="s">
-        <v>1675</v>
+        <v>1680</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1713</v>
       </c>
       <c r="J29" t="s">
-        <v>1642</v>
+        <v>1738</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>21330051920101</v>
+        <v>21330051920100</v>
       </c>
       <c r="B30" t="s">
-        <v>306</v>
+        <v>722</v>
       </c>
       <c r="C30" t="s">
-        <v>718</v>
+        <v>1522</v>
       </c>
       <c r="D30" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="E30" t="s">
-        <v>1581</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1616</v>
+        <v>1584</v>
       </c>
       <c r="G30" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="H30" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="J30" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>21330051920383</v>
+        <v>21330051920101</v>
       </c>
       <c r="B31" t="s">
-        <v>1507</v>
+        <v>306</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>718</v>
       </c>
       <c r="D31" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="E31" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="F31" t="s">
-        <v>1617</v>
+        <v>1621</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1648</v>
       </c>
       <c r="H31" t="s">
-        <v>1677</v>
+        <v>1682</v>
       </c>
       <c r="I31" t="s">
-        <v>1708</v>
+        <v>1714</v>
       </c>
       <c r="J31" t="s">
-        <v>1731</v>
+        <v>1648</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>21330051920102</v>
+        <v>21330051920383</v>
       </c>
       <c r="B32" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C32" t="s">
         <v>46</v>
       </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
       <c r="D32" t="s">
-        <v>535</v>
+        <v>1550</v>
       </c>
       <c r="E32" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="F32" t="s">
-        <v>1618</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1644</v>
+        <v>1622</v>
       </c>
       <c r="H32" t="s">
-        <v>1678</v>
+        <v>1683</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1715</v>
       </c>
       <c r="J32" t="s">
-        <v>1644</v>
+        <v>1739</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -14430,34 +14468,31 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>21330051920103</v>
+        <v>21330051920102</v>
       </c>
       <c r="B33" t="s">
-        <v>1508</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>1548</v>
+        <v>535</v>
       </c>
       <c r="E33" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="F33" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="G33" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="H33" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1709</v>
+        <v>1684</v>
       </c>
       <c r="J33" t="s">
-        <v>1619</v>
+        <v>1649</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -14465,66 +14500,66 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>21330051920104</v>
+        <v>21330051920103</v>
       </c>
       <c r="B34" t="s">
-        <v>513</v>
+        <v>1510</v>
       </c>
       <c r="C34" t="s">
-        <v>1521</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="E34" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="F34" t="s">
-        <v>1620</v>
+        <v>1624</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1650</v>
       </c>
       <c r="H34" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="I34" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="J34" t="s">
-        <v>1732</v>
+        <v>1624</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>21330051920105</v>
+        <v>21330051920104</v>
       </c>
       <c r="B35" t="s">
-        <v>296</v>
+        <v>513</v>
       </c>
       <c r="C35" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D35" t="s">
-        <v>1266</v>
+        <v>1552</v>
       </c>
       <c r="E35" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="F35" t="s">
-        <v>1621</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="H35" t="s">
-        <v>1681</v>
+        <v>1686</v>
       </c>
       <c r="I35" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="J35" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -14532,34 +14567,34 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>21330051920106</v>
+        <v>21330051920105</v>
       </c>
       <c r="B36" t="s">
-        <v>736</v>
+        <v>296</v>
       </c>
       <c r="C36" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D36" t="s">
-        <v>1550</v>
+        <v>1268</v>
       </c>
       <c r="E36" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="F36" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="G36" t="s">
-        <v>1646</v>
+        <v>1626</v>
       </c>
       <c r="H36" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="I36" t="s">
-        <v>1587</v>
+        <v>1718</v>
       </c>
       <c r="J36" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -14567,95 +14602,98 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>21330051920107</v>
+        <v>21330051920106</v>
       </c>
       <c r="B37" t="s">
-        <v>1509</v>
+        <v>737</v>
       </c>
       <c r="C37" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D37" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="E37" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="F37" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="G37" t="s">
-        <v>1623</v>
+        <v>1651</v>
       </c>
       <c r="H37" t="s">
-        <v>1683</v>
+        <v>1688</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1591</v>
       </c>
       <c r="J37" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>18330051920309</v>
+        <v>21330051920107</v>
       </c>
       <c r="B38" t="s">
-        <v>729</v>
+        <v>1511</v>
       </c>
       <c r="C38" t="s">
-        <v>1022</v>
+        <v>1526</v>
       </c>
       <c r="D38" t="s">
-        <v>531</v>
+        <v>1554</v>
       </c>
       <c r="E38" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="F38" t="s">
-        <v>1624</v>
+        <v>1628</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1628</v>
       </c>
       <c r="H38" t="s">
-        <v>1684</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1589</v>
+        <v>1689</v>
       </c>
       <c r="J38" t="s">
-        <v>1736</v>
+        <v>1743</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>21330051920109</v>
+        <v>18330051920309</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>730</v>
       </c>
       <c r="C39" t="s">
-        <v>1525</v>
+        <v>1024</v>
       </c>
       <c r="D39" t="s">
-        <v>329</v>
+        <v>531</v>
       </c>
       <c r="E39" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="F39" t="s">
-        <v>1625</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1647</v>
+        <v>1629</v>
       </c>
       <c r="H39" t="s">
-        <v>1685</v>
+        <v>1690</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1593</v>
       </c>
       <c r="J39" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -14663,33 +14701,65 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
+        <v>21330051920109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D40" t="s">
+        <v>329</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
         <v>21330051920387</v>
       </c>
-      <c r="B40" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C41" t="s">
         <v>288</v>
       </c>
-      <c r="D40" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1591</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1626</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1686</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1712</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1626</v>
-      </c>
-      <c r="K40">
+      <c r="D41" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1719</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1631</v>
+      </c>
+      <c r="K41">
         <v>1</v>
       </c>
     </row>

--- a/González Altamirano Victorino Juventino 20212.xlsx
+++ b/González Altamirano Victorino Juventino 20212.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="1748">
   <si>
     <t>NC</t>
   </si>
@@ -2488,6 +2488,9 @@
     <t>arantxitautam@gmail.com</t>
   </si>
   <si>
+    <t>#N/D</t>
+  </si>
+  <si>
     <t>sanjuanarauzisai@gmail.com</t>
   </si>
   <si>
@@ -2804,6 +2807,9 @@
   </si>
   <si>
     <t>HAIDE JIMÉNEZ CERÓN</t>
+  </si>
+  <si>
+    <t>#N/D #N/D #N/D</t>
   </si>
   <si>
     <t>ARCENIA ARAUZ ROSAS</t>
@@ -7513,7 +7519,7 @@
         <v>484</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -9187,19 +9193,19 @@
         <v>789</v>
       </c>
       <c r="F2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I2" t="s">
         <v>789</v>
       </c>
       <c r="J2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9222,16 +9228,16 @@
         <v>790</v>
       </c>
       <c r="F3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I3" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="J3" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -9254,19 +9260,19 @@
         <v>791</v>
       </c>
       <c r="F4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="J4" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9289,19 +9295,19 @@
         <v>792</v>
       </c>
       <c r="F5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G5" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I5" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="J5" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -9324,16 +9330,16 @@
         <v>793</v>
       </c>
       <c r="F6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H6" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -9356,19 +9362,19 @@
         <v>794</v>
       </c>
       <c r="F7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H7" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I7" t="s">
         <v>794</v>
       </c>
       <c r="J7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -9391,19 +9397,19 @@
         <v>795</v>
       </c>
       <c r="F8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H8" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I8" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="J8" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -9426,16 +9432,16 @@
         <v>796</v>
       </c>
       <c r="F9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H9" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I9" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="J9" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -9458,13 +9464,13 @@
         <v>797</v>
       </c>
       <c r="G10" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H10" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="J10" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -9487,19 +9493,19 @@
         <v>798</v>
       </c>
       <c r="F11" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G11" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H11" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I11" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J11" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9522,19 +9528,19 @@
         <v>799</v>
       </c>
       <c r="F12" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G12" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H12" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I12" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="J12" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -9557,19 +9563,19 @@
         <v>800</v>
       </c>
       <c r="F13" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G13" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H13" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I13" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J13" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -9592,16 +9598,16 @@
         <v>801</v>
       </c>
       <c r="F14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H14" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I14" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="J14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -9624,13 +9630,13 @@
         <v>802</v>
       </c>
       <c r="G15" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H15" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="J15" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -9653,16 +9659,16 @@
         <v>803</v>
       </c>
       <c r="F16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H16" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="J16" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -9685,16 +9691,16 @@
         <v>804</v>
       </c>
       <c r="F17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H17" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I17" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -9717,19 +9723,19 @@
         <v>805</v>
       </c>
       <c r="F18" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G18" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H18" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I18" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J18" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -9752,19 +9758,19 @@
         <v>806</v>
       </c>
       <c r="F19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G19" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H19" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="I19" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="J19" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -9787,19 +9793,19 @@
         <v>807</v>
       </c>
       <c r="F20" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G20" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H20" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="I20" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="J20" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9822,16 +9828,16 @@
         <v>808</v>
       </c>
       <c r="F21" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G21" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H21" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="J21" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -9854,19 +9860,19 @@
         <v>809</v>
       </c>
       <c r="F22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G22" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H22" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I22" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="J22" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -9889,16 +9895,16 @@
         <v>810</v>
       </c>
       <c r="F23" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H23" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="I23" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J23" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9921,16 +9927,16 @@
         <v>811</v>
       </c>
       <c r="F24" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H24" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="I24" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="J24" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -9953,16 +9959,16 @@
         <v>812</v>
       </c>
       <c r="F25" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H25" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="I25" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="J25" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -9985,16 +9991,16 @@
         <v>813</v>
       </c>
       <c r="F26" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H26" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I26" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="J26" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -10017,16 +10023,16 @@
         <v>814</v>
       </c>
       <c r="F27" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H27" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I27" t="s">
         <v>814</v>
       </c>
       <c r="J27" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -10049,16 +10055,16 @@
         <v>815</v>
       </c>
       <c r="F28" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G28" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H28" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="J28" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -10081,16 +10087,16 @@
         <v>816</v>
       </c>
       <c r="F29" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H29" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="I29" t="s">
         <v>816</v>
       </c>
       <c r="J29" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -10113,19 +10119,19 @@
         <v>817</v>
       </c>
       <c r="F30" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G30" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H30" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I30" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J30" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -10148,16 +10154,16 @@
         <v>818</v>
       </c>
       <c r="F31" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H31" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="I31" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="J31" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -10180,19 +10186,19 @@
         <v>819</v>
       </c>
       <c r="F32" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G32" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H32" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="I32" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="J32" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -10215,19 +10221,19 @@
         <v>820</v>
       </c>
       <c r="F33" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G33" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H33" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I33" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="J33" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -10250,19 +10256,19 @@
         <v>821</v>
       </c>
       <c r="F34" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G34" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H34" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="I34" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="J34" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -10281,6 +10287,24 @@
       <c r="D35" t="s">
         <v>778</v>
       </c>
+      <c r="E35" t="s">
+        <v>822</v>
+      </c>
+      <c r="F35" t="s">
+        <v>822</v>
+      </c>
+      <c r="H35" t="s">
+        <v>929</v>
+      </c>
+      <c r="I35" t="s">
+        <v>822</v>
+      </c>
+      <c r="J35" t="s">
+        <v>822</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
@@ -10296,22 +10320,22 @@
         <v>779</v>
       </c>
       <c r="E36" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F36" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G36" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H36" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="I36" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="J36" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -10331,16 +10355,16 @@
         <v>780</v>
       </c>
       <c r="E37" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G37" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H37" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J37" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -10360,19 +10384,19 @@
         <v>781</v>
       </c>
       <c r="E38" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F38" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H38" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="I38" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="J38" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -10392,19 +10416,19 @@
         <v>782</v>
       </c>
       <c r="E39" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F39" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G39" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H39" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="J39" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -10424,22 +10448,22 @@
         <v>783</v>
       </c>
       <c r="E40" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F40" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G40" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H40" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="I40" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="J40" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -10459,22 +10483,22 @@
         <v>784</v>
       </c>
       <c r="E41" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F41" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G41" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H41" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="I41" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="J41" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -10494,22 +10518,22 @@
         <v>785</v>
       </c>
       <c r="E42" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F42" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G42" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H42" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I42" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="J42" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -10529,22 +10553,22 @@
         <v>786</v>
       </c>
       <c r="E43" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F43" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G43" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H43" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="I43" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="J43" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -10564,19 +10588,19 @@
         <v>787</v>
       </c>
       <c r="E44" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F44" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H44" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="I44" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="J44" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -10596,16 +10620,16 @@
         <v>788</v>
       </c>
       <c r="E45" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G45" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H45" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="J45" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -10673,25 +10697,25 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="s">
         <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E2" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="H2" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="J2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10708,22 +10732,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E3" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F3" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H3" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="I3" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="J3" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10734,25 +10758,25 @@
         <v>21330051920291</v>
       </c>
       <c r="B4" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D4" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E4" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="F4" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H4" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="J4" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -10763,31 +10787,31 @@
         <v>21330051920292</v>
       </c>
       <c r="B5" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C5" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D5" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E5" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F5" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="G5" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="H5" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="I5" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="J5" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -10801,25 +10825,25 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D6" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E6" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F6" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H6" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="I6" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="J6" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -10830,31 +10854,31 @@
         <v>21330051920294</v>
       </c>
       <c r="B7" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E7" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F7" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="G7" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H7" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="I7" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="J7" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -10871,19 +10895,19 @@
         <v>718</v>
       </c>
       <c r="D8" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E8" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="F8" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H8" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="J8" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -10894,28 +10918,28 @@
         <v>21330051920296</v>
       </c>
       <c r="B9" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C9" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D9" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E9" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F9" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="H9" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I9" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="J9" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -10929,22 +10953,22 @@
         <v>708</v>
       </c>
       <c r="C10" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E10" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G10" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="H10" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="J10" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -10961,25 +10985,25 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E11" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F11" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="G11" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H11" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="I11" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J11" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -10996,25 +11020,25 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E12" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F12" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G12" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H12" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="I12" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J12" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -11025,28 +11049,28 @@
         <v>21330051920337</v>
       </c>
       <c r="B13" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E13" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="F13" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H13" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="I13" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="J13" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -11060,22 +11084,22 @@
         <v>710</v>
       </c>
       <c r="C14" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D14" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E14" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="G14" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="H14" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="J14" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -11089,28 +11113,28 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D15" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E15" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="F15" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="G15" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="H15" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="I15" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="J15" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -11124,28 +11148,28 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D16" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E16" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F16" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G16" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="H16" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="I16" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="J16" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -11156,28 +11180,28 @@
         <v>21330051920303</v>
       </c>
       <c r="B17" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E17" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="F17" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="H17" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="I17" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="J17" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -11188,28 +11212,28 @@
         <v>21330051920304</v>
       </c>
       <c r="B18" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E18" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F18" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G18" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H18" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="J18" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -11220,25 +11244,25 @@
         <v>21330051920305</v>
       </c>
       <c r="B19" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C19" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D19" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E19" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="G19" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="H19" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="J19" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -11255,22 +11279,22 @@
         <v>719</v>
       </c>
       <c r="D20" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E20" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F20" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="H20" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="I20" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="J20" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -11287,22 +11311,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E21" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="F21" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="H21" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="I21" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="J21" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -11316,25 +11340,25 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D22" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E22" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F22" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="G22" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="H22" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="J22" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -11345,31 +11369,31 @@
         <v>21330051920308</v>
       </c>
       <c r="B23" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E23" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F23" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G23" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H23" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="I23" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="J23" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -11380,28 +11404,28 @@
         <v>21330051920309</v>
       </c>
       <c r="B24" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C24" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D24" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E24" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F24" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="H24" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="I24" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="J24" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -11415,28 +11439,28 @@
         <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D25" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E25" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="F25" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G25" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="H25" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="I25" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="J25" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -11453,25 +11477,25 @@
         <v>294</v>
       </c>
       <c r="D26" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E26" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F26" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G26" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H26" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="I26" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="J26" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -11485,25 +11509,25 @@
         <v>502</v>
       </c>
       <c r="C27" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D27" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E27" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F27" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="G27" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H27" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="J27" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -11520,22 +11544,22 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E28" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F28" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="G28" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="H28" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="J28" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -11546,28 +11570,28 @@
         <v>21330051920313</v>
       </c>
       <c r="B29" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C29" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D29" t="s">
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="F29" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="H29" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="I29" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="J29" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -11578,28 +11602,28 @@
         <v>21330051920314</v>
       </c>
       <c r="B30" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C30" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D30" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E30" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F30" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="G30" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H30" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="J30" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -11610,31 +11634,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B31" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C31" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D31" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E31" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F31" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="G31" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H31" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="I31" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="J31" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -11648,25 +11672,25 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D32" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E32" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F32" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H32" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="I32" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="J32" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -11686,19 +11710,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="F33" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="H33" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="I33" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="J33" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -11709,28 +11733,28 @@
         <v>21330051920317</v>
       </c>
       <c r="B34" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C34" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D34" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E34" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F34" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="G34" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="H34" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="J34" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -11744,25 +11768,25 @@
         <v>719</v>
       </c>
       <c r="C35" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D35" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E35" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F35" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="G35" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="H35" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="J35" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -11779,22 +11803,22 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E36" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F36" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="G36" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="H36" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="J36" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -11808,25 +11832,25 @@
         <v>720</v>
       </c>
       <c r="C37" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D37" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E37" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F37" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H37" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="I37" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J37" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -11843,25 +11867,25 @@
         <v>296</v>
       </c>
       <c r="D38" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E38" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F38" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="G38" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="H38" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="I38" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="J38" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -11878,25 +11902,25 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E39" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="F39" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="G39" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H39" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="I39" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="J39" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -11913,25 +11937,25 @@
         <v>728</v>
       </c>
       <c r="D40" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E40" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F40" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="G40" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H40" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="I40" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="J40" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -11948,22 +11972,22 @@
         <v>719</v>
       </c>
       <c r="D41" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E41" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="F41" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H41" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="I41" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="J41" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -11980,22 +12004,22 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E42" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F42" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="H42" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="I42" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="J42" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -12009,28 +12033,28 @@
         <v>506</v>
       </c>
       <c r="C43" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D43" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E43" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F43" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="G43" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="H43" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="I43" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="J43" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -12047,25 +12071,25 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E44" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="F44" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="G44" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="H44" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="I44" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="J44" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -12079,28 +12103,28 @@
         <v>732</v>
       </c>
       <c r="C45" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D45" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E45" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="F45" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="G45" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="H45" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="I45" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="J45" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -12174,25 +12198,25 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E2" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="F2" t="s">
         <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="H2" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="I2" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="J2" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -12203,31 +12227,31 @@
         <v>21330051920002</v>
       </c>
       <c r="B3" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C3" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D3" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E3" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F3" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="G3" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="H3" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="I3" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="J3" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -12238,28 +12262,28 @@
         <v>21330051920003</v>
       </c>
       <c r="B4" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C4" t="s">
         <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E4" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="F4" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="H4" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="I4" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="J4" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -12273,25 +12297,25 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D5" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="E5" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="F5" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="H5" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="I5" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="J5" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -12308,22 +12332,22 @@
         <v>515</v>
       </c>
       <c r="D6" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E6" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="F6" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G6" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="H6" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="J6" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -12340,25 +12364,25 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="E7" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="F7" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="G7" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="H7" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="I7" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="J7" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -12369,28 +12393,28 @@
         <v>21330051920007</v>
       </c>
       <c r="B8" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C8" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D8" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="E8" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="F8" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="H8" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="I8" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="J8" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -12401,31 +12425,31 @@
         <v>21330051920008</v>
       </c>
       <c r="B9" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C9" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D9" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="E9" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F9" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="G9" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="H9" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="I9" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="J9" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -12436,7 +12460,7 @@
         <v>20330051920049</v>
       </c>
       <c r="B10" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -12445,22 +12469,22 @@
         <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="F10" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="G10" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="H10" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="I10" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="J10" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -12471,31 +12495,31 @@
         <v>21330051920380</v>
       </c>
       <c r="B11" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C11" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="D11" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="E11" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="F11" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G11" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="H11" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="I11" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="J11" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -12509,25 +12533,25 @@
         <v>710</v>
       </c>
       <c r="C12" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D12" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="E12" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="F12" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="H12" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="I12" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="J12" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -12541,28 +12565,28 @@
         <v>515</v>
       </c>
       <c r="C13" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D13" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="E13" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="F13" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G13" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="H13" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="I13" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="J13" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -12579,22 +12603,22 @@
         <v>710</v>
       </c>
       <c r="D14" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="E14" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="F14" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="H14" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="I14" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="J14" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -12608,28 +12632,28 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D15" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E15" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="F15" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G15" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="H15" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="I15" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="J15" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -12646,22 +12670,22 @@
         <v>710</v>
       </c>
       <c r="D16" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="E16" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="F16" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="H16" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="I16" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="J16" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -12672,31 +12696,31 @@
         <v>21330051920013</v>
       </c>
       <c r="B17" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="E17" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="F17" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G17" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="H17" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="I17" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="J17" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -12716,22 +12740,22 @@
         <v>520</v>
       </c>
       <c r="E18" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="F18" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G18" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="H18" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="I18" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="J18" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -12745,25 +12769,25 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D19" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="E19" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="G19" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="H19" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="I19" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="J19" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -12774,7 +12798,7 @@
         <v>20330051920391</v>
       </c>
       <c r="B20" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C20" t="s">
         <v>738</v>
@@ -12783,22 +12807,22 @@
         <v>529</v>
       </c>
       <c r="E20" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="F20" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G20" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="H20" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="I20" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="J20" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -12815,22 +12839,22 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="E21" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F21" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="H21" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="I21" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="J21" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -12841,31 +12865,31 @@
         <v>21330051920016</v>
       </c>
       <c r="B22" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C22" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D22" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="E22" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="F22" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="G22" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="H22" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="I22" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="J22" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -12882,22 +12906,22 @@
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="E23" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="F23" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="H23" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="I23" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="J23" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -12914,25 +12938,25 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="E24" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="F24" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="G24" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="H24" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="I24" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="J24" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -12952,22 +12976,22 @@
         <v>327</v>
       </c>
       <c r="E25" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F25" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G25" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="H25" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="I25" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="J25" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -12978,28 +13002,28 @@
         <v>21330051920385</v>
       </c>
       <c r="B26" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C26" t="s">
         <v>307</v>
       </c>
       <c r="D26" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="E26" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="F26" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G26" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="H26" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="J26" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -13013,28 +13037,28 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="D27" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="E27" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F27" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G27" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="H27" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="I27" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="J27" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -13045,31 +13069,31 @@
         <v>21330051920356</v>
       </c>
       <c r="B28" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="E28" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="F28" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G28" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="H28" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="I28" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="J28" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -13086,25 +13110,25 @@
         <v>290</v>
       </c>
       <c r="D29" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="E29" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F29" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G29" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="H29" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="I29" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="J29" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -13115,31 +13139,31 @@
         <v>21330051920021</v>
       </c>
       <c r="B30" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="C30" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="D30" t="s">
         <v>751</v>
       </c>
       <c r="E30" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="F30" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="G30" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="H30" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="I30" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="J30" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -13150,31 +13174,31 @@
         <v>21330051920022</v>
       </c>
       <c r="B31" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C31" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D31" t="s">
         <v>783</v>
       </c>
       <c r="E31" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="F31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="G31" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="H31" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="I31" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="J31" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -13185,31 +13209,31 @@
         <v>21330051920023</v>
       </c>
       <c r="B32" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="E32" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="F32" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="G32" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="H32" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="I32" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="J32" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -13220,28 +13244,28 @@
         <v>21330051920025</v>
       </c>
       <c r="B33" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C33" t="s">
         <v>727</v>
       </c>
       <c r="D33" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="E33" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="F33" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="G33" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="H33" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="J33" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -13258,25 +13282,25 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="E34" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="F34" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G34" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="H34" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="I34" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="J34" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -13293,25 +13317,25 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="E35" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="F35" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="G35" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="H35" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="I35" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="J35" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -13328,25 +13352,25 @@
         <v>733</v>
       </c>
       <c r="D36" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="E36" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="F36" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G36" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="H36" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="I36" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="J36" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -13357,31 +13381,31 @@
         <v>21330051920393</v>
       </c>
       <c r="B37" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="E37" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="F37" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="G37" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="H37" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="I37" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="J37" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -13449,7 +13473,7 @@
         <v>21330051920071</v>
       </c>
       <c r="B2" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -13458,22 +13482,22 @@
         <v>756</v>
       </c>
       <c r="E2" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="F2" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="G2" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="H2" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="I2" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="J2" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -13484,28 +13508,28 @@
         <v>21330051920072</v>
       </c>
       <c r="B3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C3" t="s">
         <v>304</v>
       </c>
       <c r="D3" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="E3" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="F3" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="H3" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="I3" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="J3" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -13516,28 +13540,28 @@
         <v>21330051920357</v>
       </c>
       <c r="B4" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C4" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="D4" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="E4" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="F4" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="H4" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="I4" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J4" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -13548,25 +13572,25 @@
         <v>21330051920074</v>
       </c>
       <c r="B5" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="E5" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="G5" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="H5" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="J5" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -13580,25 +13604,25 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D6" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="E6" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="F6" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="H6" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="I6" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="J6" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -13609,28 +13633,28 @@
         <v>21330051920075</v>
       </c>
       <c r="B7" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="C7" t="s">
         <v>280</v>
       </c>
       <c r="D7" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="E7" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="F7" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="H7" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="I7" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="J7" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -13641,31 +13665,31 @@
         <v>21330051920108</v>
       </c>
       <c r="B8" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="E8" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="F8" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="G8" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="H8" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="I8" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="J8" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -13682,22 +13706,22 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="E9" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="F9" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="H9" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="I9" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="J9" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -13711,28 +13735,28 @@
         <v>710</v>
       </c>
       <c r="C10" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="F10" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="G10" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="H10" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="I10" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="J10" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -13749,22 +13773,22 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="E11" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="F11" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="H11" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="I11" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="J11" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -13778,28 +13802,28 @@
         <v>515</v>
       </c>
       <c r="C12" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="D12" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="E12" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="F12" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="G12" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="H12" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="I12" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="J12" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -13819,22 +13843,22 @@
         <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="F13" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="G13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H13" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="I13" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="J13" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -13848,28 +13872,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="D14" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="E14" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="F14" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="G14" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="H14" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="I14" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="J14" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -13883,28 +13907,28 @@
         <v>499</v>
       </c>
       <c r="C15" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="D15" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="E15" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="F15" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="G15" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="H15" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="I15" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="J15" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -13921,25 +13945,25 @@
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="E16" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="F16" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="G16" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="H16" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="I16" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J16" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -13956,19 +13980,19 @@
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E17" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="G17" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="H17" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="J17" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -13985,22 +14009,22 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="E18" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="F18" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="G18" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="H18" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="J18" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -14014,25 +14038,25 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="D19" t="s">
         <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="F19" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="G19" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="H19" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="J19" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -14049,25 +14073,28 @@
         <v>294</v>
       </c>
       <c r="D20" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="E20" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="F20" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="G20" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="H20" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="I20" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="J20" t="s">
-        <v>1730</v>
+        <v>1732</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -14081,25 +14108,25 @@
         <v>294</v>
       </c>
       <c r="D21" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="E21" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="F21" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="G21" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="H21" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="I21" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="J21" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -14110,31 +14137,31 @@
         <v>21330051920092</v>
       </c>
       <c r="B22" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="C22" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="D22" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="E22" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="F22" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="G22" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="H22" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="I22" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="J22" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -14151,22 +14178,22 @@
         <v>722</v>
       </c>
       <c r="D23" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="E23" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="F23" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="H23" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="I23" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="J23" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -14180,28 +14207,28 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="D24" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="E24" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="F24" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="G24" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="H24" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="I24" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="J24" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -14215,25 +14242,25 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D25" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="E25" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="F25" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="H25" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="I25" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="J25" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -14244,31 +14271,31 @@
         <v>21330051920097</v>
       </c>
       <c r="B26" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C26" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="D26" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E26" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="F26" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="G26" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="H26" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="I26" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="J26" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -14285,22 +14312,22 @@
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="E27" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="F27" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="H27" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="I27" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J27" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -14317,19 +14344,19 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="E28" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="G28" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="H28" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="J28" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -14349,22 +14376,22 @@
         <v>549</v>
       </c>
       <c r="E29" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="F29" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="G29" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="H29" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="I29" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J29" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -14378,22 +14405,22 @@
         <v>722</v>
       </c>
       <c r="C30" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="D30" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="E30" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="G30" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="H30" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="J30" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -14410,25 +14437,25 @@
         <v>718</v>
       </c>
       <c r="D31" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="E31" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="F31" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="G31" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="H31" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="I31" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="J31" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -14439,28 +14466,28 @@
         <v>21330051920383</v>
       </c>
       <c r="B32" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="E32" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="F32" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="H32" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="I32" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="J32" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -14480,19 +14507,19 @@
         <v>535</v>
       </c>
       <c r="E33" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="F33" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="G33" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="H33" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="J33" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -14503,31 +14530,31 @@
         <v>21330051920103</v>
       </c>
       <c r="B34" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="E34" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="F34" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="G34" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="H34" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="I34" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="J34" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -14541,25 +14568,25 @@
         <v>513</v>
       </c>
       <c r="C35" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="D35" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="E35" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="F35" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="H35" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="I35" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="J35" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -14573,28 +14600,28 @@
         <v>296</v>
       </c>
       <c r="C36" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="D36" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="E36" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="F36" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="G36" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="H36" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="I36" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="J36" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -14608,28 +14635,28 @@
         <v>737</v>
       </c>
       <c r="C37" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="D37" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="E37" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="F37" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="G37" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="H37" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="I37" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="J37" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -14640,31 +14667,31 @@
         <v>21330051920107</v>
       </c>
       <c r="B38" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="C38" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="D38" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="E38" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="F38" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="G38" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="H38" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="J38" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -14675,25 +14702,25 @@
         <v>730</v>
       </c>
       <c r="C39" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D39" t="s">
         <v>531</v>
       </c>
       <c r="E39" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="F39" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="H39" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="I39" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="J39" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -14707,25 +14734,25 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="D40" t="s">
         <v>329</v>
       </c>
       <c r="E40" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="F40" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="G40" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="H40" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="J40" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -14736,28 +14763,28 @@
         <v>21330051920387</v>
       </c>
       <c r="B41" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="C41" t="s">
         <v>288</v>
       </c>
       <c r="D41" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="E41" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="F41" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="H41" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="I41" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="J41" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="K41">
         <v>1</v>
